--- a/point.xlsx
+++ b/point.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\LAB1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\LAB1\SI_lab1_gr4_153187\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D3AD7-606C-4FE5-BE8F-7A4B98DD9E08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A54F47-A4C5-436A-8C5F-077F40221C71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +389,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -423,6 +423,28 @@
       </c>
       <c r="C6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
